--- a/meta/en/3-1-2.xlsx
+++ b/meta/en/3-1-2.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -130,12 +129,6 @@
 Having a skilled attendant at the time of delivery is an important lifesaving intervention for both mothers and babies. Not having access to this key assistance is detrimental to women's health and gender empowerment because it could cause the death of the mother or long lasting disability, especially in marginalized (distanced) settings.</t>
   </si>
   <si>
-    <t>Data for this indicator are obtained from administrative data of the Ministry of Health of the Kyrgyz Republic. A State reporting form, # 3, "On medical assistance to pregnant women, women in labour in health facilities", is produced on an annual basis.</t>
-  </si>
-  <si>
-    <t>Regional health centers collect statistical reports in accordance with the form 3-ZDRAV “On medical assistance to pregnant women, women in labour in health-care institutions.” Observation method used is continuous observation. Observation units – each delivery.</t>
-  </si>
-  <si>
     <t>The indicator is calculated as the number of deliveries (including deliveries in 22-27 weeks) minus the number of deliveries of women who gave birth outside health facilities to the total number of deliveries in health facilities, multiplied by 100%.</t>
   </si>
   <si>
@@ -150,18 +143,32 @@
   <si>
     <t xml:space="preserve">www.uis.unesco.org , 
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>Data for this indicator are obtained from administrative data of the Ministry of Health of the Kyrgyz Republic. A State reporting Form No. 14 "Report on hospital activities", is produced on an annual basis.</t>
+  </si>
+  <si>
+    <t>Regional health centers collect statistical reports in accordance with the form Form No. 14 "Report on hospital activities". Observation method used is continuous observation. Observation units – each delivery.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,25 +235,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -557,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,16 +695,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/meta/en/3-1-2.xlsx
+++ b/meta/en/3-1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>+996 (0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percentage of births attended by skilled health personnel is the percentage of deliveries attended by health personnel trained in providing lifesaving obstetric care, including giving the necessary supervision, care and advice to women during pregnancy, labour and the post-partum period, conducting deliveries on their own, and caring for newborns. </t>
   </si>
   <si>
@@ -149,18 +146,29 @@
   </si>
   <si>
     <t>Regional health centers collect statistical reports in accordance with the form Form No. 14 "Report on hospital activities". Observation method used is continuous observation. Observation units – each delivery.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,25 +243,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -568,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,8 +707,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>42</v>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -718,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
